--- a/target/test-classes/com/inetbanking/testData/LoginData.xlsx
+++ b/target/test-classes/com/inetbanking/testData/LoginData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A83809-B41C-4823-BF23-D571DF8FE846}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>mngr83460</t>
   </si>
@@ -50,12 +49,18 @@
   </si>
   <si>
     <t>jahetAp</t>
+  </si>
+  <si>
+    <t>mngr452656</t>
+  </si>
+  <si>
+    <t>dajedes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,18 +436,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,10 +466,10 @@
     </row>
     <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
